--- a/PORTPOLIO/메뉴구성도.xlsx
+++ b/PORTPOLIO/메뉴구성도.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_2semester\PORTPOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0FB1C1-A233-43B0-9A13-18B18DCF5C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCB3DE6-60D0-4A95-AEE0-77971FFA498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="617" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="617" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="directory" sheetId="11" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">directory!$A$1:$H$68</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="165">
   <si>
     <t>1depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>request_confirm.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이지설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -681,6 +678,10 @@
   </si>
   <si>
     <t>로그인이필요한화면에접근시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_request_confirm.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,12 +943,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -974,6 +969,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1314,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1332,16 +1333,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1366,19 +1367,19 @@
         <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
@@ -1391,12 +1392,12 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
@@ -1420,7 +1421,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14" t="s">
@@ -1438,7 +1439,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -1456,7 +1457,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
@@ -1496,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
@@ -1514,7 +1515,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -1532,7 +1533,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -1540,7 +1541,7 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,7 +1551,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -1568,7 +1569,7 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
@@ -1580,35 +1581,35 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="26" t="s">
-        <v>141</v>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="24" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="36" t="s">
-        <v>82</v>
+      <c r="D15" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
@@ -1616,17 +1617,17 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="33" t="s">
-        <v>84</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
@@ -1634,14 +1635,14 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="33"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="11"/>
@@ -1651,7 +1652,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="33"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="11"/>
@@ -1661,50 +1662,50 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="11"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="12.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="29"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>2</v>
@@ -1712,17 +1713,17 @@
       <c r="F22" s="5"/>
       <c r="G22" s="11"/>
       <c r="H22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>2</v>
@@ -1730,17 +1731,17 @@
       <c r="F23" s="5"/>
       <c r="G23" s="11"/>
       <c r="H23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>2</v>
@@ -1748,17 +1749,17 @@
       <c r="F24" s="5"/>
       <c r="G24" s="11"/>
       <c r="H24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>2</v>
@@ -1766,17 +1767,17 @@
       <c r="F25" s="5"/>
       <c r="G25" s="11"/>
       <c r="H25" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>2</v>
@@ -1784,17 +1785,17 @@
       <c r="F26" s="5"/>
       <c r="G26" s="11"/>
       <c r="H26" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="C27" s="27"/>
       <c r="D27" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>2</v>
@@ -1802,82 +1803,82 @@
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
       <c r="H27" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="26" t="s">
-        <v>134</v>
+      <c r="A28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="33" t="s">
-        <v>107</v>
+      <c r="D29" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="11"/>
       <c r="H29" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="33" t="s">
-        <v>106</v>
+      <c r="D30" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="11"/>
       <c r="H30" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="33" t="s">
-        <v>105</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="33"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="11"/>
@@ -1887,52 +1888,52 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="33"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="12.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="29"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" ht="12.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="26" t="s">
-        <v>113</v>
+      <c r="A35" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="24" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="33" t="s">
-        <v>112</v>
+      <c r="D36" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>2</v>
@@ -1942,42 +1943,42 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="33" t="s">
-        <v>115</v>
+      <c r="D37" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="33" t="s">
-        <v>117</v>
+      <c r="D38" s="31" t="s">
+        <v>116</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="33"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="11"/>
@@ -1987,167 +1988,167 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="33"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="12.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="29"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="36" t="s">
-        <v>86</v>
+      <c r="D43" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="33" t="s">
-        <v>87</v>
+      <c r="D44" s="31" t="s">
+        <v>86</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="11"/>
       <c r="H44" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="33" t="s">
-        <v>88</v>
+      <c r="D45" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="11"/>
       <c r="H45" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="33" t="s">
-        <v>89</v>
+      <c r="D46" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="11"/>
       <c r="H46" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="33" t="s">
-        <v>93</v>
+      <c r="D47" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="11"/>
       <c r="H47" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="23" t="s">
-        <v>100</v>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="26" t="s">
-        <v>138</v>
+      <c r="A49" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="33" t="s">
-        <v>123</v>
+      <c r="D50" s="31" t="s">
+        <v>122</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
@@ -2155,17 +2156,17 @@
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="33" t="s">
-        <v>124</v>
+      <c r="D51" s="31" t="s">
+        <v>123</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>2</v>
@@ -2175,14 +2176,14 @@
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="33"/>
+      <c r="D52" s="31"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="11"/>
@@ -2192,7 +2193,7 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="33"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="11"/>
@@ -2202,34 +2203,34 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="33"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="11"/>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" ht="12.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="29"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="27"/>
     </row>
     <row r="56" spans="1:8" ht="12.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="s">
@@ -2243,11 +2244,11 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>2</v>
@@ -2263,11 +2264,11 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
@@ -2281,11 +2282,11 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
@@ -2293,17 +2294,17 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>2</v>
@@ -2313,7 +2314,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="12.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2323,7 +2324,7 @@
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>2</v>
@@ -2337,37 +2338,37 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="12.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="D62" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="26" t="s">
-        <v>163</v>
+      <c r="E62" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="26"/>
+      <c r="H62" s="24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="33" t="s">
-        <v>157</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>2</v>
@@ -2377,7 +2378,7 @@
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2386,8 +2387,8 @@
         <v>20</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="33" t="s">
-        <v>162</v>
+      <c r="D64" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>2</v>
@@ -2403,24 +2404,24 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="31" t="s">
         <v>160</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="33" t="s">
-        <v>161</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="11"/>
       <c r="H65" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="33"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="11"/>
@@ -2430,21 +2431,21 @@
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="33"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="11"/>
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" ht="12.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="29"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="27"/>
     </row>
     <row r="69" spans="1:8" ht="12.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E69" s="6"/>
@@ -2570,4 +2571,705 @@
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104422DE-8EC2-4110-B633-35FD877A839D}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.08203125" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="40.25" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="54.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="26" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>